--- a/data/Ações para consulta.xlsx
+++ b/data/Ações para consulta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\Projetos\Fundamentus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\Projetos\Fundamentus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF01809-8F25-4877-B487-B67EE078A2AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D7ED3-6463-4706-9EAA-D0BB06866398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27735" yWindow="660" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Ação</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>WEGE3</t>
+  </si>
+  <si>
+    <t>LWSA3</t>
   </si>
 </sst>
 </file>
@@ -414,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,6 +447,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/data/Ações para consulta.xlsx
+++ b/data/Ações para consulta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\Projetos\Fundamentus\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526D7ED3-6463-4706-9EAA-D0BB06866398}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7605635-D699-4F0A-8E95-5D90A1D5806A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27735" yWindow="660" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,10 +420,13 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">

--- a/data/Ações para consulta.xlsx
+++ b/data/Ações para consulta.xlsx
@@ -1,51 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\Projetos\Fundamentus\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7605635-D699-4F0A-8E95-5D90A1D5806A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BD3025-29C3-4CBE-AF3E-0959236CAB04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27735" yWindow="660" windowWidth="27855" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27735" yWindow="660" windowWidth="27855" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="outra" sheetId="2" r:id="rId1"/>
+    <sheet name="Mercado" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Ação</t>
   </si>
   <si>
+    <t>Setor</t>
+  </si>
+  <si>
+    <t>Subsetor</t>
+  </si>
+  <si>
     <t>Dia</t>
   </si>
   <si>
     <t>Mês</t>
   </si>
   <si>
-    <t>Setor</t>
-  </si>
-  <si>
-    <t>Subsetor</t>
-  </si>
-  <si>
     <t>WEGE3</t>
   </si>
   <si>
+    <t>Máquinas e Equipamentos</t>
+  </si>
+  <si>
+    <t>Motores, Compressores e Outros</t>
+  </si>
+  <si>
     <t>LWSA3</t>
+  </si>
+  <si>
+    <t>Programas e Serviços</t>
   </si>
 </sst>
 </file>
@@ -416,47 +416,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFAC48C-3C02-47CA-9F3D-201657CFBB92}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>1.36</v>
+      </c>
+      <c r="E2">
+        <v>-0.24</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>-1.58</v>
+      </c>
+      <c r="E3">
+        <v>24.93</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="300"/>
 </worksheet>
 </file>